--- a/biology/Botanique/Clausena/Clausena.xlsx
+++ b/biology/Botanique/Clausena/Clausena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clausena est un genre de plantes de la famille des Rutaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre comprend des arbustes et des arbres. Certaines espèces sont variables, avec de nombreuses formes.
-Les feuilles sont pennées, divisées en folioles. La forme de l'inflorescence varie, mais il s'agit généralement d'un groupe de plusieurs fleurs à 4 ou 5 pétales et sépales. Le fruit est une baie qui n'a pas la pulpe de nombreux autres fruits de la famille des agrumes[1]. Le genre peut être distingué des plantes apparentées par la présence d'un gynophore, une structure supportant l'ovaire dans la fleur. Il semble cependant très différent selon les espèces et peut être difficile à reconnaître.
+Les feuilles sont pennées, divisées en folioles. La forme de l'inflorescence varie, mais il s'agit généralement d'un groupe de plusieurs fleurs à 4 ou 5 pétales et sépales. Le fruit est une baie qui n'a pas la pulpe de nombreux autres fruits de la famille des agrumes. Le genre peut être distingué des plantes apparentées par la présence d'un gynophore, une structure supportant l'ovaire dans la fleur. Il semble cependant très différent selon les espèces et peut être difficile à reconnaître.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre se trouve en Afrique, en Asie du Sud, en Australie et dans les îles du Pacifique.
 </t>
@@ -574,7 +590,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Clausena abyssinica
 Clausena anisata
@@ -623,9 +641,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clausena anisata est un arbre utilisé pour son bois et pour la médecine traditionnelle. C. excavata est utilisé en médecine en Asie pour diverses affections, dont la morsure de serpent, le paludisme, la dysenterie et l’infection au VIH. Certaines espèces, telles que C. indica et C. lansium (wampi), produisent des fruits comestibles. Le wampi est cultivé comme arbre fruitier et, bien qu'il ne s’agisse que d'un parent éloigné d'agrumes, il peut être greffé à divers agrumes[2]. Il existe des variétés aigres, douces et intermédiaires de C. lansium.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clausena anisata est un arbre utilisé pour son bois et pour la médecine traditionnelle. C. excavata est utilisé en médecine en Asie pour diverses affections, dont la morsure de serpent, le paludisme, la dysenterie et l’infection au VIH. Certaines espèces, telles que C. indica et C. lansium (wampi), produisent des fruits comestibles. Le wampi est cultivé comme arbre fruitier et, bien qu'il ne s’agisse que d'un parent éloigné d'agrumes, il peut être greffé à divers agrumes. Il existe des variétés aigres, douces et intermédiaires de C. lansium.
 </t>
         </is>
       </c>
